--- a/excel_file/interface_analysis_document.xlsx
+++ b/excel_file/interface_analysis_document.xlsx
@@ -21,7 +21,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -33,7 +33,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Feature_Name</t>
+  </si>
+  <si>
+    <t>Feature_Number</t>
+  </si>
+  <si>
+    <t>isFeature</t>
+  </si>
   <si>
     <t>InterfaceName</t>
   </si>
@@ -110,6 +122,9 @@
     <t>FormatCheck</t>
   </si>
   <si>
+    <t>参数校验</t>
+  </si>
+  <si>
     <t>新建学生信息</t>
   </si>
   <si>
@@ -123,6 +138,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>{
   "name": "</t>
     </r>
@@ -229,8 +250,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -247,19 +268,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -271,16 +292,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,12 +352,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -323,92 +429,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,187 +467,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,11 +661,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,22 +680,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,17 +696,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,22 +719,42 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,133 +778,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -900,26 +921,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -927,13 +954,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1284,317 +1305,352 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.0083333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.41666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.55" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.39166666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="5.85833333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.99166666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.61666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.65" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.35" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.525" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.96666666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.48333333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.59166666666667" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="11.975" customWidth="1"/>
+    <col min="4" max="4" width="12.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.0083333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.41666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.55" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.39166666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="5.85833333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.99166666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.61666666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.65" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.35" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.525" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.96666666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.48333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.59166666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:15">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="20" customHeight="1" spans="1:19">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" ht="16" customHeight="1" spans="1:15">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="8" t="s">
+    <row r="2" ht="20" customHeight="1" spans="2:19">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" ht="16" customHeight="1" spans="5:19">
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
-    <row r="3" ht="14.25" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="13">
+    <row r="4" ht="14.25" spans="5:19">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="11">
         <v>6</v>
       </c>
-      <c r="K3" s="13">
+      <c r="O4" s="11">
         <v>30</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="P4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
-    <row r="4" ht="14.25" spans="1:15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="14" t="s">
+    <row r="5" ht="14.25" spans="5:19">
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="K5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="7"/>
+      <c r="S5" s="5"/>
     </row>
-    <row r="5" ht="14.25" spans="1:15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+    <row r="6" ht="14.25" spans="5:19">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
     </row>
-    <row r="6" ht="14.25" spans="1:15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="G6" s="7" t="s">
+    <row r="7" ht="14.25" spans="5:19">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="M7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="11">
+        <v>6</v>
+      </c>
+      <c r="O7" s="11">
+        <v>250</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="5:19">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="13">
-        <v>6</v>
-      </c>
-      <c r="K6" s="13">
-        <v>250</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="M8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="11">
+        <v>4</v>
+      </c>
+      <c r="O8" s="11">
+        <v>30</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
     </row>
-    <row r="7" ht="14.25" spans="1:15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="13">
-        <v>4</v>
-      </c>
-      <c r="K7" s="13">
-        <v>30</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+    <row r="9" ht="14.25" spans="5:19">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="11">
+        <v>11</v>
+      </c>
+      <c r="O9" s="11">
+        <v>11</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" ht="14.25" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="13">
-        <v>11</v>
-      </c>
-      <c r="K8" s="13">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="G9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>36</v>
+    <row r="10" ht="14.25" spans="5:19">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="H2 I2 H3 H4:H9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4 S5:S10">
+      <formula1>"邮箱格式,手机格式,日期格式"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4 L5:L10">
       <formula1>"string,int,float,date,bool"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9">
-      <formula1>"json,param"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="L2 L3 L4:L9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4 P5:P10">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsArray" error="输入错误" sqref="N2 N3 N4:N9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J10 J11:J1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="C2:C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsArray" error="输入错误" sqref="R3 R4 R5:R10">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G10">
       <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="O2 O3 O4:O9">
-      <formula1>"邮箱格式,手机格式,日期格式"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9 F10:F1048576">
-      <formula1>"Yes,No"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H10">
+      <formula1>"json,param"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_file/interface_analysis_document.xlsx
+++ b/excel_file/interface_analysis_document.xlsx
@@ -10,6 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -62,8 +64,55 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>该字段不填时，默认值为No。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>该字段不填时，默认值为No</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">该字段不填时，默认值为No。
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
   <si>
     <t>Depth</t>
   </si>
@@ -135,6 +184,30 @@
   </si>
   <si>
     <t>json</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\AutoWriteCase\excel_file\demo.json</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <r>
@@ -192,15 +265,6 @@
     </r>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
@@ -213,15 +277,9 @@
     <t>age</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>邮箱格式</t>
   </si>
   <si>
-    <t>mark</t>
-  </si>
-  <si>
     <t>mobile</t>
   </si>
   <si>
@@ -237,10 +295,25 @@
     <t>2020-5-3</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>日期格式</t>
+  </si>
+  <si>
+    <t>最小边界值</t>
+  </si>
+  <si>
+    <t>最大边界值</t>
+  </si>
+  <si>
+    <t>是否必填</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>&gt;0</t>
+  </si>
+  <si>
+    <t>大于1</t>
   </si>
 </sst>
 </file>
@@ -248,10 +321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -262,6 +335,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
@@ -271,12 +350,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -299,7 +372,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,6 +386,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -320,8 +415,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,16 +454,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -375,7 +470,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,13 +484,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -420,21 +508,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -467,73 +540,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,109 +702,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +731,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -671,6 +753,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -701,41 +807,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -752,9 +823,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,163 +839,169 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -930,7 +1009,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -939,22 +1018,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1307,10 +1383,10 @@
   <sheetPr/>
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1318,21 +1394,21 @@
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="11.975" customWidth="1"/>
     <col min="4" max="4" width="12.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.0083333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.41666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.55" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.39166666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="5.85833333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.99166666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.61666666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.65" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.35" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.525" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.96666666666667" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.48333333333333" style="1" customWidth="1"/>
-    <col min="18" max="18" width="5.59166666666667" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.0083333333333" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7.41666666666667" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6.55" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.39166666666667" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9" style="5"/>
+    <col min="10" max="10" width="5.85833333333333" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.99166666666667" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.61666666666667" style="5" customWidth="1"/>
+    <col min="13" max="13" width="14.65" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.35" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.525" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8.96666666666667" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9.48333333333333" style="5" customWidth="1"/>
+    <col min="18" max="18" width="5.59166666666667" style="5" customWidth="1"/>
+    <col min="19" max="19" width="10.6" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:19">
@@ -1348,49 +1424,49 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1398,259 +1474,221 @@
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="5:19">
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="4" ht="14.25" spans="5:19">
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="K4" s="5" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="11">
-        <v>6</v>
-      </c>
-      <c r="O4" s="11">
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
         <v>30</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" ht="14.25" spans="11:16">
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>30</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" spans="5:19">
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="K5" s="5" t="s">
+    </row>
+    <row r="6" ht="14.25" spans="11:16">
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>30</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="11:16">
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>30</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="5" t="s">
+    </row>
+    <row r="8" ht="14.25" spans="11:16">
+      <c r="K8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2</v>
+      </c>
+      <c r="O8" s="4">
+        <v>30</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="11:16">
+      <c r="K9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>30</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="15" t="s">
+    </row>
+    <row r="10" ht="14.25" spans="11:16">
+      <c r="K10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" spans="5:19">
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="K6" s="5" t="s">
+      <c r="L10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="4">
         <v>31</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-    </row>
-    <row r="7" ht="14.25" spans="5:19">
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="K7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="11">
-        <v>6</v>
-      </c>
-      <c r="O7" s="11">
-        <v>250</v>
-      </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="5:19">
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="K8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="11">
-        <v>4</v>
-      </c>
-      <c r="O8" s="11">
+      <c r="O10" s="4">
         <v>30</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-    </row>
-    <row r="9" ht="14.25" spans="5:19">
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="K9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="11">
-        <v>11</v>
-      </c>
-      <c r="O9" s="11">
-        <v>11</v>
-      </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="5:19">
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="K10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>41</v>
+      <c r="P10" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4 S5:S10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4 L5 L6 L7 L8 L9 L10">
+      <formula1>"string,int,float,date,bool"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J4 J5:J1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4 P5 P6 P7 P9 P10">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsArray" error="输入错误" sqref="R3 R4">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4">
       <formula1>"邮箱格式,手机格式,日期格式"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4 L5:L10">
-      <formula1>"string,int,float,date,bool"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4">
+      <formula1>"json,param"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4 P5:P10">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J10 J11:J1048576">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsArray" error="输入错误" sqref="R3 R4 R5:R10">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G4">
       <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H10">
-      <formula1>"json,param"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1692,4 +1730,538 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="11.975" customWidth="1"/>
+    <col min="4" max="4" width="12.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.0083333333333" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7.41666666666667" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6.55" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.39166666666667" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9" style="5"/>
+    <col min="10" max="10" width="5.85833333333333" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.99166666666667" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.61666666666667" style="5" customWidth="1"/>
+    <col min="13" max="13" width="14.65" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.35" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.525" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8.96666666666667" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9.48333333333333" style="5" customWidth="1"/>
+    <col min="18" max="18" width="5.59166666666667" style="5" customWidth="1"/>
+    <col min="19" max="19" width="10.6" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="2:19">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+    </row>
+    <row r="3" ht="16" customHeight="1" spans="5:19">
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" ht="14.25" spans="5:19">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="3">
+        <v>6</v>
+      </c>
+      <c r="O4" s="3">
+        <v>30</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" ht="14.25" spans="5:19">
+      <c r="E5" s="2"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" ht="14.25" spans="5:19">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" ht="14.25" spans="5:19">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="3">
+        <v>6</v>
+      </c>
+      <c r="O7" s="3">
+        <v>250</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="5:19">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="3">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
+        <v>30</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" ht="14.25" spans="5:19">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="3">
+        <v>11</v>
+      </c>
+      <c r="O9" s="3">
+        <v>11</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="5:19">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4 L5:L10">
+      <formula1>"string,int,float,date,bool"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J10 J11:J1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4 P5:P10">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsArray" error="输入错误" sqref="R3 R4 R5:R10">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4 S5:S10">
+      <formula1>"邮箱格式,手机格式,日期格式"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H10">
+      <formula1>"json,param"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G10">
+      <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="H8:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="23.375" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="8:10">
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="8:10">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="8:10">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="8:10">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="8:10">
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="8:10">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="8:10">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="8:10">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="8:10">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="8:10">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="8:10">
+      <c r="H18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="8:10">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="8:10">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="8:10">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="8:10">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="8:10">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" ht="14.25" spans="8:13">
+      <c r="H24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>30</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="8:13">
+      <c r="H25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="4">
+        <v>3</v>
+      </c>
+      <c r="L25" s="4">
+        <v>30</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="I24 I25">
+      <formula1>"string,int,float,date,bool"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="M24">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel_file/interface_analysis_document.xlsx
+++ b/excel_file/interface_analysis_document.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1 (3)" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -111,8 +112,55 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>该字段不填时，默认值为No。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>该字段不填时，默认值为No</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">该字段不填时，默认值为No。
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="50">
   <si>
     <t>Depth</t>
   </si>
@@ -321,10 +369,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -365,14 +413,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,14 +489,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,11 +510,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,14 +542,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,45 +556,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -540,6 +588,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -552,43 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,127 +708,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,11 +782,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,6 +821,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -784,24 +847,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,17 +879,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -839,145 +887,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1381,12 +1429,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1667,15 +1715,41 @@
         <v>28</v>
       </c>
     </row>
+    <row r="11" ht="14.25" spans="11:16">
+      <c r="K11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="4">
+        <v>30</v>
+      </c>
+      <c r="O11" s="4">
+        <v>30</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4 L5 L6 L7 L8 L9 L10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4">
+      <formula1>"json,param"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4 L5 L6 L7 L8 L9 L10 L11">
       <formula1>"string,int,float,date,bool"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J4 J5:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G4">
+      <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4 P5 P6 P7 P9 P10 P11">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4 P5 P6 P7 P9 P10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J4 J5:J1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsArray" error="输入错误" sqref="R3 R4">
@@ -1683,12 +1757,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4">
       <formula1>"邮箱格式,手机格式,日期格式"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4">
-      <formula1>"json,param"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G4">
-      <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1701,17 +1769,200 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="11.975" customWidth="1"/>
+    <col min="4" max="4" width="12.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.0083333333333" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7.41666666666667" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6.55" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.39166666666667" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9" style="5"/>
+    <col min="10" max="10" width="5.85833333333333" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.99166666666667" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.61666666666667" style="5" customWidth="1"/>
+    <col min="13" max="13" width="14.65" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.35" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.525" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8.96666666666667" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9.48333333333333" style="5" customWidth="1"/>
+    <col min="18" max="18" width="5.59166666666667" style="5" customWidth="1"/>
+    <col min="19" max="19" width="10.6" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="2:19">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+    </row>
+    <row r="3" ht="16" customHeight="1" spans="5:19">
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" ht="14.25" spans="5:19">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3">
+        <v>30</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4">
+      <formula1>"json,param"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4">
+      <formula1>"string,int,float,date,bool"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G4">
+      <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J4 J5:J1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsArray" error="输入错误" sqref="R3 R4">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4">
+      <formula1>"邮箱格式,手机格式,日期格式"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1733,6 +1984,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:S10"/>
@@ -2061,13 +2329,19 @@
     </row>
   </sheetData>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H10">
+      <formula1>"json,param"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4 L5:L10">
       <formula1>"string,int,float,date,bool"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J10 J11:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G10">
+      <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4 P5:P10">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4 P5:P10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J10 J11:J1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsArray" error="输入错误" sqref="R3 R4 R5:R10">
@@ -2075,12 +2349,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4 S5:S10">
       <formula1>"邮箱格式,手机格式,日期格式"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H10">
-      <formula1>"json,param"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G10">
-      <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2090,7 +2358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="H8:M25"/>

--- a/excel_file/interface_analysis_document.xlsx
+++ b/excel_file/interface_analysis_document.xlsx
@@ -369,9 +369,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -413,6 +413,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -420,15 +435,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,25 +448,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,17 +472,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -496,7 +503,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,49 +517,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -588,6 +588,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -600,175 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,17 +782,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,35 +806,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,16 +842,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,10 +887,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -899,133 +899,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1434,7 +1434,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1706,7 +1706,7 @@
         <v>30</v>
       </c>
       <c r="N10" s="4">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="O10" s="4">
         <v>30</v>
@@ -1737,26 +1737,26 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4">
-      <formula1>"json,param"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4">
+      <formula1>"邮箱格式,手机格式,日期格式"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4 L5 L6 L7 L8 L9 L10 L11">
       <formula1>"string,int,float,date,bool"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G4">
-      <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4 P5 P6 P7 P9 P10 P11">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J4 J5:J1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsArray" error="输入错误" sqref="R3 R4">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4">
-      <formula1>"邮箱格式,手机格式,日期格式"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4">
+      <formula1>"json,param"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G4">
+      <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J4 J5:J1048576">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1937,26 +1937,26 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4">
-      <formula1>"json,param"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4">
+      <formula1>"邮箱格式,手机格式,日期格式"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4">
       <formula1>"string,int,float,date,bool"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G4">
-      <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J4 J5:J1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsArray" error="输入错误" sqref="R3 R4">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4">
-      <formula1>"邮箱格式,手机格式,日期格式"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4">
+      <formula1>"json,param"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G4">
+      <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J4 J5:J1048576">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2329,26 +2329,26 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H10">
-      <formula1>"json,param"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4 S5:S10">
+      <formula1>"邮箱格式,手机格式,日期格式"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4 L5:L10">
       <formula1>"string,int,float,date,bool"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G10">
-      <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4 P5:P10">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J10 J11:J1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsArray" error="输入错误" sqref="R3 R4 R5:R10">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4 S5:S10">
-      <formula1>"邮箱格式,手机格式,日期格式"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H10">
+      <formula1>"json,param"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G10">
+      <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J10 J11:J1048576">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_file/interface_analysis_document.xlsx
+++ b/excel_file/interface_analysis_document.xlsx
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
   <si>
     <t>Depth</t>
   </si>
@@ -247,15 +247,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <r>
@@ -325,9 +316,15 @@
     <t>age</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>邮箱格式</t>
   </si>
   <si>
+    <t>mark</t>
+  </si>
+  <si>
     <t>mobile</t>
   </si>
   <si>
@@ -359,6 +356,9 @@
   </si>
   <si>
     <t>&gt;0</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>大于1</t>
@@ -369,9 +369,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -413,7 +413,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,24 +463,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,53 +504,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,7 +518,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -541,13 +548,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -588,187 +588,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,26 +782,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,41 +817,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,6 +839,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -887,10 +887,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -899,19 +899,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -920,112 +920,112 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1429,15 +1429,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="11.975" customWidth="1"/>
@@ -1583,167 +1583,24 @@
         <v>26</v>
       </c>
       <c r="N4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" s="3">
         <v>30</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="16"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" ht="14.25" spans="11:16">
-      <c r="K5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>30</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="11:16">
-      <c r="K6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="3">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3">
-        <v>30</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="11:16">
-      <c r="K7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3">
-        <v>30</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="11:16">
-      <c r="K8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="4">
-        <v>2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>30</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="11:16">
-      <c r="K9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="4">
-        <v>2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>30</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="11:16">
-      <c r="K10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="4">
-        <v>16</v>
-      </c>
-      <c r="O10" s="4">
-        <v>30</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="11:16">
-      <c r="K11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="4">
-        <v>30</v>
-      </c>
-      <c r="O11" s="4">
-        <v>30</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4">
-      <formula1>"邮箱格式,手机格式,日期格式"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4 L5 L6 L7 L8 L9 L10 L11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4">
       <formula1>"string,int,float,date,bool"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4 P5 P6 P7 P9 P10 P11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsArray" error="输入错误" sqref="R3 R4">
@@ -1751,6 +1608,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4">
       <formula1>"json,param"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4">
+      <formula1>"邮箱格式,手机格式,日期格式"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G4">
       <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
@@ -1937,9 +1797,6 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4">
-      <formula1>"邮箱格式,手机格式,日期格式"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4">
       <formula1>"string,int,float,date,bool"</formula1>
     </dataValidation>
@@ -1951,6 +1808,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4">
       <formula1>"json,param"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4">
+      <formula1>"邮箱格式,手机格式,日期格式"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G4">
       <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
@@ -2126,7 +1986,7 @@
         <v>23</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>25</v>
@@ -2176,19 +2036,19 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="K5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>25</v>
@@ -2202,13 +2062,13 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -2224,13 +2084,13 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N7" s="3">
         <v>6</v>
@@ -2242,7 +2102,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="5:19">
@@ -2252,13 +2112,13 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N8" s="3">
         <v>4</v>
@@ -2278,13 +2138,13 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N9" s="3">
         <v>11</v>
@@ -2296,7 +2156,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="5:19">
@@ -2306,32 +2166,29 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="K10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="M10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4 S5:S10">
-      <formula1>"邮箱格式,手机格式,日期格式"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4 L5:L10">
       <formula1>"string,int,float,date,bool"</formula1>
     </dataValidation>
@@ -2343,6 +2200,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H10">
       <formula1>"json,param"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4 S5:S10">
+      <formula1>"邮箱格式,手机格式,日期格式"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G10">
       <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
@@ -2376,13 +2236,13 @@
   <sheetData>
     <row r="8" spans="8:10">
       <c r="H8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="8:10">
@@ -2393,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="8:10">
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -2416,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="8:10">
@@ -2425,7 +2285,7 @@
         <v>49</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="8:10">
@@ -2482,13 +2342,13 @@
     </row>
     <row r="24" ht="14.25" spans="8:13">
       <c r="H24" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -2502,13 +2362,13 @@
     </row>
     <row r="25" ht="14.25" spans="8:13">
       <c r="H25" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K25" s="4">
         <v>3</v>
@@ -2517,7 +2377,7 @@
         <v>30</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/excel_file/interface_analysis_document.xlsx
+++ b/excel_file/interface_analysis_document.xlsx
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
   <si>
     <t>Depth</t>
   </si>
@@ -244,6 +244,15 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>李四,王麻子</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>No</t>
@@ -322,9 +331,6 @@
     <t>邮箱格式</t>
   </si>
   <si>
-    <t>mark</t>
-  </si>
-  <si>
     <t>mobile</t>
   </si>
   <si>
@@ -350,9 +356,6 @@
   </si>
   <si>
     <t>是否必填</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>&gt;0</t>
@@ -413,14 +416,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,82 +521,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -525,16 +536,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,12 +591,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -606,31 +741,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,133 +765,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,45 +782,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -847,11 +811,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,15 +882,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -887,10 +890,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -899,19 +902,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -920,116 +923,116 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,6 +1082,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1429,15 +1435,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="11.975" customWidth="1"/>
@@ -1448,14 +1454,13 @@
     <col min="8" max="8" width="9.39166666666667" style="5" customWidth="1"/>
     <col min="9" max="9" width="9" style="5"/>
     <col min="10" max="10" width="5.85833333333333" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.99166666666667" style="5" customWidth="1"/>
-    <col min="12" max="12" width="8.61666666666667" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.4" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.21666666666667" style="5" customWidth="1"/>
     <col min="13" max="13" width="14.65" style="5" customWidth="1"/>
     <col min="14" max="14" width="8.35" style="4" customWidth="1"/>
     <col min="15" max="15" width="8.525" style="4" customWidth="1"/>
-    <col min="16" max="16" width="8.96666666666667" style="5" customWidth="1"/>
-    <col min="17" max="17" width="9.48333333333333" style="5" customWidth="1"/>
-    <col min="18" max="18" width="5.59166666666667" style="5" customWidth="1"/>
+    <col min="16" max="16" width="8.44166666666667" style="5" customWidth="1"/>
+    <col min="17" max="18" width="9.48333333333333" style="5" customWidth="1"/>
     <col min="19" max="19" width="10.6" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1591,23 +1596,47 @@
       <c r="P4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="2"/>
+      <c r="Q4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S4" s="2"/>
+    </row>
+    <row r="5" ht="14.25" spans="11:16">
+      <c r="K5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4">
+        <v>10</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J4 J5:J1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4 L5">
       <formula1>"string,int,float,date,bool"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4">
-      <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsArray" error="输入错误" sqref="R3 R4">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4">
-      <formula1>"json,param"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4">
       <formula1>"邮箱格式,手机格式,日期格式"</formula1>
@@ -1615,8 +1644,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G4">
       <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J4 J5:J1048576">
-      <formula1>"Yes,No"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4">
+      <formula1>"json,param"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1789,7 +1818,7 @@
         <v>30</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="16"/>
       <c r="R4" s="2"/>
@@ -1797,17 +1826,17 @@
     </row>
   </sheetData>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J4 J5:J1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4">
       <formula1>"string,int,float,date,bool"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4">
-      <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsArray" error="输入错误" sqref="R3 R4">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4">
-      <formula1>"json,param"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4">
       <formula1>"邮箱格式,手机格式,日期格式"</formula1>
@@ -1815,8 +1844,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G4">
       <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J4 J5:J1048576">
-      <formula1>"Yes,No"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4">
+      <formula1>"json,param"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1986,7 +2015,7 @@
         <v>23</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>25</v>
@@ -2036,19 +2065,19 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="K5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>25</v>
@@ -2062,13 +2091,13 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -2084,13 +2113,13 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N7" s="3">
         <v>6</v>
@@ -2102,7 +2131,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="5:19">
@@ -2112,13 +2141,13 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N8" s="3">
         <v>4</v>
@@ -2138,13 +2167,13 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N9" s="3">
         <v>11</v>
@@ -2156,7 +2185,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="5:19">
@@ -2166,40 +2195,40 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J10 J11:J1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="参数类型" error="参数类型输入错误！" sqref="L3 M3 L4 L5:L10">
       <formula1>"string,int,float,date,bool"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4 P5:P10">
-      <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsArray" error="输入错误" sqref="R3 R4 R5:R10">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H10">
-      <formula1>"json,param"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否必填" error="输入错误" sqref="P3 P4 P5:P10">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式校验" error="输入的校验格式目前不支持" sqref="S3 S4 S5:S10">
       <formula1>"邮箱格式,手机格式,日期格式"</formula1>
@@ -2207,8 +2236,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请求方法" error="输入的HTTP请求的方法不存在，请重新输入。" sqref="G3:G10">
       <formula1>"get,delete,post,put,options,trace,connect,head"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J10 J11:J1048576">
-      <formula1>"Yes,No"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H10">
+      <formula1>"json,param"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2236,13 +2265,13 @@
   <sheetData>
     <row r="8" spans="8:10">
       <c r="H8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="8:10">
@@ -2253,13 +2282,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="8:10">
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -2276,16 +2305,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="8:10">
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="8:10">
@@ -2310,7 +2339,7 @@
     </row>
     <row r="18" spans="8:10">
       <c r="H18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2342,13 +2371,13 @@
     </row>
     <row r="24" ht="14.25" spans="8:13">
       <c r="H24" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -2362,13 +2391,13 @@
     </row>
     <row r="25" ht="14.25" spans="8:13">
       <c r="H25" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K25" s="4">
         <v>3</v>
@@ -2377,7 +2406,7 @@
         <v>30</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
